--- a/src/main/resources/excel/moneyTreeTable_org.x1.logic.moneytree.data.MoneyTreeTable.xlsx
+++ b/src/main/resources/excel/moneyTreeTable_org.x1.logic.moneytree.data.MoneyTreeTable.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ppdashi\Desktop\excel转json\ExcelToJson\数据结构\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\javaDemo\x1\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="5">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,12 +41,16 @@
     <t>vip等级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>阿斯顿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,6 +61,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -85,8 +97,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -403,86 +418,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B10"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="12.5" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>0</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>400</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>500</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>5</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>600</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>6</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>700</v>
       </c>
     </row>
